--- a/documentation/Time Estimation.xlsx
+++ b/documentation/Time Estimation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trent_cfomfbd\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBDBA95-22B6-422D-ACC5-2782E816D8FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C065C5DD-54A3-4BB7-BD7A-F7B9AE3A9786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1845" yWindow="5040" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2190" yWindow="5385" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Estimation Time Table" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Time estimation</t>
   </si>
@@ -72,13 +72,16 @@
   </si>
   <si>
     <t>Total Time Estimate</t>
+  </si>
+  <si>
+    <t>We  came up with these estimates by leveraging our past experiences with similar projects at internships and standard industry practices. Each team member contributed their insights in the first meeting on how long specific tasks usually take based on their individual expertise. We also discussed potential challenges and the complexity of each feature to ensure our estimates were realistic. This collaborative approach helped us create a project plan that is both achievable and well planned.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -109,6 +112,13 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -130,7 +140,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -179,11 +189,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -192,6 +211,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,10 +435,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -421,93 +446,172 @@
     <col min="1" max="1" width="28.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3" s="6"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4" s="6"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5" s="6"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6" s="6"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C8" s="6"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C9" s="6"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C10" s="6"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C11" s="6"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
@@ -515,10 +619,18 @@
         <f>SUM(B3:B11)</f>
         <v>32</v>
       </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:I12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
